--- a/data/case1/5/P2_14.xlsx
+++ b/data/case1/5/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.10062179438010332</v>
+        <v>0.010862383516112573</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995962605226</v>
+        <v>-0.0099999991027743818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996030716289</v>
+        <v>-0.0089999991153284498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399022332149571</v>
+        <v>0.28398346540400254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996195827521</v>
+        <v>-0.0059999991456942681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999608441442</v>
+        <v>-0.0059999991228423255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999526987722</v>
+        <v>-0.01999999897683935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999525134982</v>
+        <v>-0.019999998975665179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.053794642794693814</v>
+        <v>-0.0059999991224817251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995985720034</v>
+        <v>0.031301591893445391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999996064731818</v>
+        <v>-0.0044999991407763673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995960779984</v>
+        <v>-0.0059999991248247397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999589490379</v>
+        <v>-0.0059999991238335326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999552857687</v>
+        <v>-0.011999999061766076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995858639465</v>
+        <v>-0.0059999991250636597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.005999999584402449</v>
+        <v>-0.0059999991273409492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995824879804</v>
+        <v>0.034544989413821447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995647227493</v>
+        <v>-0.0089999991021167958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.077227116228937298</v>
+        <v>-0.0089999991127505119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.029237088695079905</v>
+        <v>-0.0089999991052653883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995932172894</v>
+        <v>-0.008999999104223555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995927820819</v>
+        <v>-0.0089999991034961369</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995994274329</v>
+        <v>-0.038367830782489065</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999402778876</v>
+        <v>-0.018515172575281902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999399505938</v>
+        <v>-0.041999998748901923</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999996070025929</v>
+        <v>-0.0059999991200285763</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999996050228432</v>
+        <v>-0.0059999991157990706</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995975275056</v>
+        <v>-0.0059999990960637462</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999557977148</v>
+        <v>-0.011999999020353869</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999509531019</v>
+        <v>-0.01999999893134019</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0030789698801463317</v>
+        <v>-0.014999998974348117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999500174837</v>
+        <v>-0.020999998910954609</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995863693201</v>
+        <v>-0.0059999990662005231</v>
       </c>
     </row>
   </sheetData>
